--- a/lab5/data/mandatory_task.xlsx
+++ b/lab5/data/mandatory_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhalexandr/PycharmProjects/itmo-cse-informatics/lab5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE34C5D-4C1D-5B43-9186-0C4FDA2B9FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD6B00-E70F-0F45-90AE-678FCFC9DCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="-22280" windowWidth="34560" windowHeight="21660" xr2:uid="{D23CC1A3-BE58-634D-8264-AE3ED6B3E614}"/>
+    <workbookView xWindow="7980" yWindow="-22280" windowWidth="34560" windowHeight="21660" xr2:uid="{D23CC1A3-BE58-634D-8264-AE3ED6B3E614}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Task" sheetId="1" r:id="rId1"/>
@@ -775,6 +775,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,18 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,9 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F3FCB-88CC-A04B-A244-BA7B975AC6BE}">
   <dimension ref="B1:BM118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC86" zoomScale="92" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1726,7 +1724,7 @@
       <c r="BG3" s="47"/>
       <c r="BH3" s="47"/>
       <c r="BI3" s="47"/>
-      <c r="BJ3" s="63" t="str">
+      <c r="BJ3" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH5=0,AH6=0),"двух положительных слагаемых",IF(AND(AH5=1,AH6=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -1734,8 +1732,8 @@
 IF(BD4="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении двух положительных слагаемых получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="65"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="69"/>
       <c r="BM3" s="51"/>
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.2">
@@ -1856,7 +1854,7 @@
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
       <c r="BC4" s="16"/>
-      <c r="BD4" s="72" t="str">
+      <c r="BD4" s="64" t="str">
         <f>IF(BB8=BG8,"=","!=")</f>
         <v>=</v>
       </c>
@@ -1865,9 +1863,9 @@
       <c r="BG4" s="10"/>
       <c r="BH4" s="16"/>
       <c r="BI4" s="47"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="67"/>
-      <c r="BL4" s="68"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="72"/>
       <c r="BM4" s="51"/>
     </row>
     <row r="5" spans="2:65" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,10 +1874,10 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="8">
         <v>15</v>
       </c>
@@ -2019,7 +2017,7 @@
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="17"/>
-      <c r="BD5" s="72"/>
+      <c r="BD5" s="64"/>
       <c r="BE5" s="5"/>
       <c r="BF5" s="25" t="s">
         <v>58</v>
@@ -2030,9 +2028,9 @@
       </c>
       <c r="BH5" s="17"/>
       <c r="BI5" s="47"/>
-      <c r="BJ5" s="66"/>
-      <c r="BK5" s="67"/>
-      <c r="BL5" s="68"/>
+      <c r="BJ5" s="70"/>
+      <c r="BK5" s="71"/>
+      <c r="BL5" s="72"/>
       <c r="BM5" s="51"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.2">
@@ -2219,7 +2217,7 @@
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="17"/>
-      <c r="BD6" s="72"/>
+      <c r="BD6" s="64"/>
       <c r="BE6" s="15" t="s">
         <v>46</v>
       </c>
@@ -2232,9 +2230,9 @@
       </c>
       <c r="BH6" s="17"/>
       <c r="BI6" s="47"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="68"/>
+      <c r="BJ6" s="70"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="72"/>
       <c r="BM6" s="51"/>
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.2">
@@ -2337,42 +2335,42 @@
       <c r="AC7" s="51"/>
       <c r="AE7" s="49"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="73" t="s">
+      <c r="AG7" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="17"/>
-      <c r="BD7" s="72"/>
+      <c r="BD7" s="64"/>
       <c r="BE7" s="15"/>
-      <c r="BF7" s="73" t="s">
+      <c r="BF7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG7" s="73"/>
+      <c r="BG7" s="63"/>
       <c r="BH7" s="17"/>
       <c r="BI7" s="47"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="68"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="72"/>
       <c r="BM7" s="51"/>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.2">
@@ -2565,7 +2563,7 @@
       <c r="BC8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD8" s="72"/>
+      <c r="BD8" s="64"/>
       <c r="BE8" s="18"/>
       <c r="BF8" s="24"/>
       <c r="BG8" s="19">
@@ -2576,9 +2574,9 @@
         <v>50</v>
       </c>
       <c r="BI8" s="47"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="68"/>
+      <c r="BJ8" s="70"/>
+      <c r="BK8" s="71"/>
+      <c r="BL8" s="72"/>
       <c r="BM8" s="51"/>
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.2">
@@ -2710,9 +2708,9 @@
       <c r="BG9" s="47"/>
       <c r="BH9" s="47"/>
       <c r="BI9" s="47"/>
-      <c r="BJ9" s="69"/>
-      <c r="BK9" s="70"/>
-      <c r="BL9" s="71"/>
+      <c r="BJ9" s="73"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="75"/>
       <c r="BM9" s="51"/>
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.2">
@@ -3941,7 +3939,7 @@
       <c r="BG20" s="47"/>
       <c r="BH20" s="47"/>
       <c r="BI20" s="47"/>
-      <c r="BJ20" s="63" t="str">
+      <c r="BJ20" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH22=0,AH23=0),"двух положительных слагаемых",IF(AND(AH22=1,AH23=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -3949,8 +3947,8 @@
 IF(BD21="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.</v>
       </c>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="65"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="69"/>
       <c r="BM20" s="51"/>
     </row>
     <row r="21" spans="2:65" x14ac:dyDescent="0.2">
@@ -4036,7 +4034,7 @@
       <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="16"/>
-      <c r="BD21" s="72" t="str">
+      <c r="BD21" s="64" t="str">
         <f>IF(BB25=BG25,"=","!=")</f>
         <v>!=</v>
       </c>
@@ -4045,9 +4043,9 @@
       <c r="BG21" s="10"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="47"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="68"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="71"/>
+      <c r="BL21" s="72"/>
       <c r="BM21" s="51"/>
     </row>
     <row r="22" spans="2:65" x14ac:dyDescent="0.2">
@@ -4135,7 +4133,7 @@
       <c r="BA22" s="6"/>
       <c r="BB22" s="6"/>
       <c r="BC22" s="17"/>
-      <c r="BD22" s="72"/>
+      <c r="BD22" s="64"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="25" t="s">
         <v>59</v>
@@ -4146,9 +4144,9 @@
       </c>
       <c r="BH22" s="17"/>
       <c r="BI22" s="47"/>
-      <c r="BJ22" s="66"/>
-      <c r="BK22" s="67"/>
-      <c r="BL22" s="68"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="71"/>
+      <c r="BL22" s="72"/>
       <c r="BM22" s="51"/>
     </row>
     <row r="23" spans="2:65" x14ac:dyDescent="0.2">
@@ -4238,7 +4236,7 @@
       <c r="BA23" s="6"/>
       <c r="BB23" s="6"/>
       <c r="BC23" s="17"/>
-      <c r="BD23" s="72"/>
+      <c r="BD23" s="64"/>
       <c r="BE23" s="15" t="s">
         <v>46</v>
       </c>
@@ -4251,50 +4249,50 @@
       </c>
       <c r="BH23" s="17"/>
       <c r="BI23" s="47"/>
-      <c r="BJ23" s="66"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="68"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="71"/>
+      <c r="BL23" s="72"/>
       <c r="BM23" s="51"/>
     </row>
     <row r="24" spans="2:65" x14ac:dyDescent="0.2">
       <c r="AE24" s="49"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="73" t="s">
+      <c r="AG24" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="63"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="63"/>
+      <c r="AX24" s="63"/>
+      <c r="AY24" s="63"/>
+      <c r="AZ24" s="63"/>
       <c r="BA24" s="6"/>
       <c r="BB24" s="6"/>
       <c r="BC24" s="17"/>
-      <c r="BD24" s="72"/>
+      <c r="BD24" s="64"/>
       <c r="BE24" s="15"/>
-      <c r="BF24" s="73" t="s">
+      <c r="BF24" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG24" s="73"/>
+      <c r="BG24" s="63"/>
       <c r="BH24" s="17"/>
       <c r="BI24" s="47"/>
-      <c r="BJ24" s="66"/>
-      <c r="BK24" s="67"/>
-      <c r="BL24" s="68"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="71"/>
+      <c r="BL24" s="72"/>
       <c r="BM24" s="51"/>
     </row>
     <row r="25" spans="2:65" x14ac:dyDescent="0.2">
@@ -4390,7 +4388,7 @@
       <c r="BC25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BD25" s="72"/>
+      <c r="BD25" s="64"/>
       <c r="BE25" s="18"/>
       <c r="BF25" s="24"/>
       <c r="BG25" s="19">
@@ -4401,9 +4399,9 @@
         <v>50</v>
       </c>
       <c r="BI25" s="47"/>
-      <c r="BJ25" s="66"/>
-      <c r="BK25" s="67"/>
-      <c r="BL25" s="68"/>
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="71"/>
+      <c r="BL25" s="72"/>
       <c r="BM25" s="51"/>
     </row>
     <row r="26" spans="2:65" x14ac:dyDescent="0.2">
@@ -4438,9 +4436,9 @@
       <c r="BG26" s="47"/>
       <c r="BH26" s="47"/>
       <c r="BI26" s="47"/>
-      <c r="BJ26" s="69"/>
-      <c r="BK26" s="70"/>
-      <c r="BL26" s="71"/>
+      <c r="BJ26" s="73"/>
+      <c r="BK26" s="74"/>
+      <c r="BL26" s="75"/>
       <c r="BM26" s="51"/>
     </row>
     <row r="27" spans="2:65" x14ac:dyDescent="0.2">
@@ -4813,7 +4811,7 @@
       <c r="BG37" s="47"/>
       <c r="BH37" s="47"/>
       <c r="BI37" s="47"/>
-      <c r="BJ37" s="63" t="str">
+      <c r="BJ37" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH39=0,AH40=0),"двух положительных слагаемых",IF(AND(AH39=1,AH40=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -4821,8 +4819,8 @@
 IF(BD38="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении положительного и отрицательного слагаемого получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="65"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="69"/>
       <c r="BM37" s="51"/>
     </row>
     <row r="38" spans="31:65" x14ac:dyDescent="0.2">
@@ -4908,7 +4906,7 @@
       <c r="BA38" s="10"/>
       <c r="BB38" s="10"/>
       <c r="BC38" s="16"/>
-      <c r="BD38" s="72" t="str">
+      <c r="BD38" s="64" t="str">
         <f>IF(BB42=BG42,"=","!=")</f>
         <v>=</v>
       </c>
@@ -4917,9 +4915,9 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="47"/>
-      <c r="BJ38" s="66"/>
-      <c r="BK38" s="67"/>
-      <c r="BL38" s="68"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="71"/>
+      <c r="BL38" s="72"/>
       <c r="BM38" s="51"/>
     </row>
     <row r="39" spans="31:65" x14ac:dyDescent="0.2">
@@ -5007,7 +5005,7 @@
       <c r="BA39" s="6"/>
       <c r="BB39" s="6"/>
       <c r="BC39" s="17"/>
-      <c r="BD39" s="72"/>
+      <c r="BD39" s="64"/>
       <c r="BE39" s="5"/>
       <c r="BF39" s="25" t="s">
         <v>59</v>
@@ -5018,9 +5016,9 @@
       </c>
       <c r="BH39" s="17"/>
       <c r="BI39" s="47"/>
-      <c r="BJ39" s="66"/>
-      <c r="BK39" s="67"/>
-      <c r="BL39" s="68"/>
+      <c r="BJ39" s="70"/>
+      <c r="BK39" s="71"/>
+      <c r="BL39" s="72"/>
       <c r="BM39" s="51"/>
     </row>
     <row r="40" spans="31:65" x14ac:dyDescent="0.2">
@@ -5110,7 +5108,7 @@
       <c r="BA40" s="6"/>
       <c r="BB40" s="6"/>
       <c r="BC40" s="17"/>
-      <c r="BD40" s="72"/>
+      <c r="BD40" s="64"/>
       <c r="BE40" s="15" t="s">
         <v>46</v>
       </c>
@@ -5123,50 +5121,50 @@
       </c>
       <c r="BH40" s="17"/>
       <c r="BI40" s="47"/>
-      <c r="BJ40" s="66"/>
-      <c r="BK40" s="67"/>
-      <c r="BL40" s="68"/>
+      <c r="BJ40" s="70"/>
+      <c r="BK40" s="71"/>
+      <c r="BL40" s="72"/>
       <c r="BM40" s="51"/>
     </row>
     <row r="41" spans="31:65" x14ac:dyDescent="0.2">
       <c r="AE41" s="49"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="73" t="s">
+      <c r="AG41" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="73"/>
-      <c r="AM41" s="73"/>
-      <c r="AN41" s="73"/>
-      <c r="AO41" s="73"/>
-      <c r="AP41" s="73"/>
-      <c r="AQ41" s="73"/>
-      <c r="AR41" s="73"/>
-      <c r="AS41" s="73"/>
-      <c r="AT41" s="73"/>
-      <c r="AU41" s="73"/>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="73"/>
-      <c r="AX41" s="73"/>
-      <c r="AY41" s="73"/>
-      <c r="AZ41" s="73"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="63"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="63"/>
       <c r="BA41" s="6"/>
       <c r="BB41" s="6"/>
       <c r="BC41" s="17"/>
-      <c r="BD41" s="72"/>
+      <c r="BD41" s="64"/>
       <c r="BE41" s="15"/>
-      <c r="BF41" s="73" t="s">
+      <c r="BF41" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG41" s="73"/>
+      <c r="BG41" s="63"/>
       <c r="BH41" s="17"/>
       <c r="BI41" s="47"/>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="67"/>
-      <c r="BL41" s="68"/>
+      <c r="BJ41" s="70"/>
+      <c r="BK41" s="71"/>
+      <c r="BL41" s="72"/>
       <c r="BM41" s="51"/>
     </row>
     <row r="42" spans="31:65" x14ac:dyDescent="0.2">
@@ -5262,7 +5260,7 @@
       <c r="BC42" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD42" s="72"/>
+      <c r="BD42" s="64"/>
       <c r="BE42" s="18"/>
       <c r="BF42" s="24"/>
       <c r="BG42" s="19">
@@ -5273,9 +5271,9 @@
         <v>50</v>
       </c>
       <c r="BI42" s="47"/>
-      <c r="BJ42" s="66"/>
-      <c r="BK42" s="67"/>
-      <c r="BL42" s="68"/>
+      <c r="BJ42" s="70"/>
+      <c r="BK42" s="71"/>
+      <c r="BL42" s="72"/>
       <c r="BM42" s="51"/>
     </row>
     <row r="43" spans="31:65" x14ac:dyDescent="0.2">
@@ -5310,9 +5308,9 @@
       <c r="BG43" s="47"/>
       <c r="BH43" s="47"/>
       <c r="BI43" s="47"/>
-      <c r="BJ43" s="69"/>
-      <c r="BK43" s="70"/>
-      <c r="BL43" s="71"/>
+      <c r="BJ43" s="73"/>
+      <c r="BK43" s="74"/>
+      <c r="BL43" s="75"/>
       <c r="BM43" s="51"/>
     </row>
     <row r="44" spans="31:65" x14ac:dyDescent="0.2">
@@ -5685,7 +5683,7 @@
       <c r="BG54" s="47"/>
       <c r="BH54" s="47"/>
       <c r="BI54" s="47"/>
-      <c r="BJ54" s="63" t="str">
+      <c r="BJ54" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH56=0,AH57=0),"двух положительных слагаемых",IF(AND(AH56=1,AH57=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -5693,8 +5691,8 @@
 IF(BD55="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении двух отрицательных слагаемых получено отрицательное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BK54" s="64"/>
-      <c r="BL54" s="65"/>
+      <c r="BK54" s="68"/>
+      <c r="BL54" s="69"/>
       <c r="BM54" s="51"/>
     </row>
     <row r="55" spans="31:65" x14ac:dyDescent="0.2">
@@ -5780,7 +5778,7 @@
       <c r="BA55" s="10"/>
       <c r="BB55" s="10"/>
       <c r="BC55" s="16"/>
-      <c r="BD55" s="72" t="str">
+      <c r="BD55" s="64" t="str">
         <f>IF(BB59=BG59,"=","!=")</f>
         <v>=</v>
       </c>
@@ -5789,9 +5787,9 @@
       <c r="BG55" s="10"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="47"/>
-      <c r="BJ55" s="66"/>
-      <c r="BK55" s="67"/>
-      <c r="BL55" s="68"/>
+      <c r="BJ55" s="70"/>
+      <c r="BK55" s="71"/>
+      <c r="BL55" s="72"/>
       <c r="BM55" s="51"/>
     </row>
     <row r="56" spans="31:65" x14ac:dyDescent="0.2">
@@ -5879,7 +5877,7 @@
       <c r="BA56" s="6"/>
       <c r="BB56" s="6"/>
       <c r="BC56" s="17"/>
-      <c r="BD56" s="72"/>
+      <c r="BD56" s="64"/>
       <c r="BE56" s="5"/>
       <c r="BF56" s="25" t="s">
         <v>66</v>
@@ -5890,9 +5888,9 @@
       </c>
       <c r="BH56" s="17"/>
       <c r="BI56" s="47"/>
-      <c r="BJ56" s="66"/>
-      <c r="BK56" s="67"/>
-      <c r="BL56" s="68"/>
+      <c r="BJ56" s="70"/>
+      <c r="BK56" s="71"/>
+      <c r="BL56" s="72"/>
       <c r="BM56" s="51"/>
     </row>
     <row r="57" spans="31:65" x14ac:dyDescent="0.2">
@@ -5982,7 +5980,7 @@
       <c r="BA57" s="6"/>
       <c r="BB57" s="6"/>
       <c r="BC57" s="17"/>
-      <c r="BD57" s="72"/>
+      <c r="BD57" s="64"/>
       <c r="BE57" s="15" t="s">
         <v>46</v>
       </c>
@@ -5995,50 +5993,50 @@
       </c>
       <c r="BH57" s="17"/>
       <c r="BI57" s="47"/>
-      <c r="BJ57" s="66"/>
-      <c r="BK57" s="67"/>
-      <c r="BL57" s="68"/>
+      <c r="BJ57" s="70"/>
+      <c r="BK57" s="71"/>
+      <c r="BL57" s="72"/>
       <c r="BM57" s="51"/>
     </row>
     <row r="58" spans="31:65" x14ac:dyDescent="0.2">
       <c r="AE58" s="49"/>
       <c r="AF58" s="5"/>
-      <c r="AG58" s="73" t="s">
+      <c r="AG58" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH58" s="73"/>
-      <c r="AI58" s="73"/>
-      <c r="AJ58" s="73"/>
-      <c r="AK58" s="73"/>
-      <c r="AL58" s="73"/>
-      <c r="AM58" s="73"/>
-      <c r="AN58" s="73"/>
-      <c r="AO58" s="73"/>
-      <c r="AP58" s="73"/>
-      <c r="AQ58" s="73"/>
-      <c r="AR58" s="73"/>
-      <c r="AS58" s="73"/>
-      <c r="AT58" s="73"/>
-      <c r="AU58" s="73"/>
-      <c r="AV58" s="73"/>
-      <c r="AW58" s="73"/>
-      <c r="AX58" s="73"/>
-      <c r="AY58" s="73"/>
-      <c r="AZ58" s="73"/>
+      <c r="AH58" s="63"/>
+      <c r="AI58" s="63"/>
+      <c r="AJ58" s="63"/>
+      <c r="AK58" s="63"/>
+      <c r="AL58" s="63"/>
+      <c r="AM58" s="63"/>
+      <c r="AN58" s="63"/>
+      <c r="AO58" s="63"/>
+      <c r="AP58" s="63"/>
+      <c r="AQ58" s="63"/>
+      <c r="AR58" s="63"/>
+      <c r="AS58" s="63"/>
+      <c r="AT58" s="63"/>
+      <c r="AU58" s="63"/>
+      <c r="AV58" s="63"/>
+      <c r="AW58" s="63"/>
+      <c r="AX58" s="63"/>
+      <c r="AY58" s="63"/>
+      <c r="AZ58" s="63"/>
       <c r="BA58" s="6"/>
       <c r="BB58" s="6"/>
       <c r="BC58" s="17"/>
-      <c r="BD58" s="72"/>
+      <c r="BD58" s="64"/>
       <c r="BE58" s="15"/>
-      <c r="BF58" s="73" t="s">
+      <c r="BF58" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG58" s="73"/>
+      <c r="BG58" s="63"/>
       <c r="BH58" s="17"/>
       <c r="BI58" s="47"/>
-      <c r="BJ58" s="66"/>
-      <c r="BK58" s="67"/>
-      <c r="BL58" s="68"/>
+      <c r="BJ58" s="70"/>
+      <c r="BK58" s="71"/>
+      <c r="BL58" s="72"/>
       <c r="BM58" s="51"/>
     </row>
     <row r="59" spans="31:65" x14ac:dyDescent="0.2">
@@ -6134,7 +6132,7 @@
       <c r="BC59" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD59" s="72"/>
+      <c r="BD59" s="64"/>
       <c r="BE59" s="18"/>
       <c r="BF59" s="24"/>
       <c r="BG59" s="19">
@@ -6145,9 +6143,9 @@
         <v>50</v>
       </c>
       <c r="BI59" s="47"/>
-      <c r="BJ59" s="66"/>
-      <c r="BK59" s="67"/>
-      <c r="BL59" s="68"/>
+      <c r="BJ59" s="70"/>
+      <c r="BK59" s="71"/>
+      <c r="BL59" s="72"/>
       <c r="BM59" s="51"/>
     </row>
     <row r="60" spans="31:65" x14ac:dyDescent="0.2">
@@ -6182,9 +6180,9 @@
       <c r="BG60" s="47"/>
       <c r="BH60" s="47"/>
       <c r="BI60" s="47"/>
-      <c r="BJ60" s="69"/>
-      <c r="BK60" s="70"/>
-      <c r="BL60" s="71"/>
+      <c r="BJ60" s="73"/>
+      <c r="BK60" s="74"/>
+      <c r="BL60" s="75"/>
       <c r="BM60" s="51"/>
     </row>
     <row r="61" spans="31:65" x14ac:dyDescent="0.2">
@@ -6557,7 +6555,7 @@
       <c r="BG71" s="47"/>
       <c r="BH71" s="47"/>
       <c r="BI71" s="47"/>
-      <c r="BJ71" s="63" t="str">
+      <c r="BJ71" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH73=0,AH74=0),"двух положительных слагаемых",IF(AND(AH73=1,AH74=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -6565,8 +6563,8 @@
 IF(BD72="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении двух отрицательных слагаемых получено положительное число. Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.</v>
       </c>
-      <c r="BK71" s="64"/>
-      <c r="BL71" s="65"/>
+      <c r="BK71" s="68"/>
+      <c r="BL71" s="69"/>
       <c r="BM71" s="51"/>
     </row>
     <row r="72" spans="31:65" x14ac:dyDescent="0.2">
@@ -6652,7 +6650,7 @@
       <c r="BA72" s="10"/>
       <c r="BB72" s="10"/>
       <c r="BC72" s="16"/>
-      <c r="BD72" s="72" t="str">
+      <c r="BD72" s="64" t="str">
         <f>IF(BB76=BG76,"=","!=")</f>
         <v>!=</v>
       </c>
@@ -6661,9 +6659,9 @@
       <c r="BG72" s="10"/>
       <c r="BH72" s="16"/>
       <c r="BI72" s="47"/>
-      <c r="BJ72" s="66"/>
-      <c r="BK72" s="67"/>
-      <c r="BL72" s="68"/>
+      <c r="BJ72" s="70"/>
+      <c r="BK72" s="71"/>
+      <c r="BL72" s="72"/>
       <c r="BM72" s="51"/>
     </row>
     <row r="73" spans="31:65" x14ac:dyDescent="0.2">
@@ -6751,7 +6749,7 @@
       <c r="BA73" s="6"/>
       <c r="BB73" s="6"/>
       <c r="BC73" s="17"/>
-      <c r="BD73" s="72"/>
+      <c r="BD73" s="64"/>
       <c r="BE73" s="5"/>
       <c r="BF73" s="25" t="s">
         <v>68</v>
@@ -6762,9 +6760,9 @@
       </c>
       <c r="BH73" s="17"/>
       <c r="BI73" s="47"/>
-      <c r="BJ73" s="66"/>
-      <c r="BK73" s="67"/>
-      <c r="BL73" s="68"/>
+      <c r="BJ73" s="70"/>
+      <c r="BK73" s="71"/>
+      <c r="BL73" s="72"/>
       <c r="BM73" s="51"/>
     </row>
     <row r="74" spans="31:65" x14ac:dyDescent="0.2">
@@ -6854,7 +6852,7 @@
       <c r="BA74" s="6"/>
       <c r="BB74" s="6"/>
       <c r="BC74" s="17"/>
-      <c r="BD74" s="72"/>
+      <c r="BD74" s="64"/>
       <c r="BE74" s="15" t="s">
         <v>46</v>
       </c>
@@ -6867,50 +6865,50 @@
       </c>
       <c r="BH74" s="17"/>
       <c r="BI74" s="47"/>
-      <c r="BJ74" s="66"/>
-      <c r="BK74" s="67"/>
-      <c r="BL74" s="68"/>
+      <c r="BJ74" s="70"/>
+      <c r="BK74" s="71"/>
+      <c r="BL74" s="72"/>
       <c r="BM74" s="51"/>
     </row>
     <row r="75" spans="31:65" x14ac:dyDescent="0.2">
       <c r="AE75" s="49"/>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="73" t="s">
+      <c r="AG75" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH75" s="73"/>
-      <c r="AI75" s="73"/>
-      <c r="AJ75" s="73"/>
-      <c r="AK75" s="73"/>
-      <c r="AL75" s="73"/>
-      <c r="AM75" s="73"/>
-      <c r="AN75" s="73"/>
-      <c r="AO75" s="73"/>
-      <c r="AP75" s="73"/>
-      <c r="AQ75" s="73"/>
-      <c r="AR75" s="73"/>
-      <c r="AS75" s="73"/>
-      <c r="AT75" s="73"/>
-      <c r="AU75" s="73"/>
-      <c r="AV75" s="73"/>
-      <c r="AW75" s="73"/>
-      <c r="AX75" s="73"/>
-      <c r="AY75" s="73"/>
-      <c r="AZ75" s="73"/>
+      <c r="AH75" s="63"/>
+      <c r="AI75" s="63"/>
+      <c r="AJ75" s="63"/>
+      <c r="AK75" s="63"/>
+      <c r="AL75" s="63"/>
+      <c r="AM75" s="63"/>
+      <c r="AN75" s="63"/>
+      <c r="AO75" s="63"/>
+      <c r="AP75" s="63"/>
+      <c r="AQ75" s="63"/>
+      <c r="AR75" s="63"/>
+      <c r="AS75" s="63"/>
+      <c r="AT75" s="63"/>
+      <c r="AU75" s="63"/>
+      <c r="AV75" s="63"/>
+      <c r="AW75" s="63"/>
+      <c r="AX75" s="63"/>
+      <c r="AY75" s="63"/>
+      <c r="AZ75" s="63"/>
       <c r="BA75" s="6"/>
       <c r="BB75" s="6"/>
       <c r="BC75" s="17"/>
-      <c r="BD75" s="72"/>
+      <c r="BD75" s="64"/>
       <c r="BE75" s="15"/>
-      <c r="BF75" s="73" t="s">
+      <c r="BF75" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG75" s="73"/>
+      <c r="BG75" s="63"/>
       <c r="BH75" s="17"/>
       <c r="BI75" s="47"/>
-      <c r="BJ75" s="66"/>
-      <c r="BK75" s="67"/>
-      <c r="BL75" s="68"/>
+      <c r="BJ75" s="70"/>
+      <c r="BK75" s="71"/>
+      <c r="BL75" s="72"/>
       <c r="BM75" s="51"/>
     </row>
     <row r="76" spans="31:65" x14ac:dyDescent="0.2">
@@ -7006,7 +7004,7 @@
       <c r="BC76" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD76" s="72"/>
+      <c r="BD76" s="64"/>
       <c r="BE76" s="18"/>
       <c r="BF76" s="24"/>
       <c r="BG76" s="19">
@@ -7017,9 +7015,9 @@
         <v>50</v>
       </c>
       <c r="BI76" s="47"/>
-      <c r="BJ76" s="66"/>
-      <c r="BK76" s="67"/>
-      <c r="BL76" s="68"/>
+      <c r="BJ76" s="70"/>
+      <c r="BK76" s="71"/>
+      <c r="BL76" s="72"/>
       <c r="BM76" s="51"/>
     </row>
     <row r="77" spans="31:65" x14ac:dyDescent="0.2">
@@ -7054,9 +7052,9 @@
       <c r="BG77" s="47"/>
       <c r="BH77" s="47"/>
       <c r="BI77" s="47"/>
-      <c r="BJ77" s="69"/>
-      <c r="BK77" s="70"/>
-      <c r="BL77" s="71"/>
+      <c r="BJ77" s="73"/>
+      <c r="BK77" s="74"/>
+      <c r="BL77" s="75"/>
       <c r="BM77" s="51"/>
     </row>
     <row r="78" spans="31:65" x14ac:dyDescent="0.2">
@@ -7429,7 +7427,7 @@
       <c r="BG88" s="47"/>
       <c r="BH88" s="47"/>
       <c r="BI88" s="47"/>
-      <c r="BJ88" s="63" t="str">
+      <c r="BJ88" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH90=0,AH91=0),"двух положительных слагаемых",IF(AND(AH90=1,AH91=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -7437,8 +7435,8 @@
 IF(BD89="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении положительного и отрицательного слагаемого получено отрицательное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BK88" s="64"/>
-      <c r="BL88" s="65"/>
+      <c r="BK88" s="68"/>
+      <c r="BL88" s="69"/>
       <c r="BM88" s="51"/>
     </row>
     <row r="89" spans="31:65" x14ac:dyDescent="0.2">
@@ -7524,7 +7522,7 @@
       <c r="BA89" s="10"/>
       <c r="BB89" s="10"/>
       <c r="BC89" s="16"/>
-      <c r="BD89" s="72" t="str">
+      <c r="BD89" s="64" t="str">
         <f>IF(BB93=BG93,"=","!=")</f>
         <v>=</v>
       </c>
@@ -7533,9 +7531,9 @@
       <c r="BG89" s="10"/>
       <c r="BH89" s="16"/>
       <c r="BI89" s="47"/>
-      <c r="BJ89" s="66"/>
-      <c r="BK89" s="67"/>
-      <c r="BL89" s="68"/>
+      <c r="BJ89" s="70"/>
+      <c r="BK89" s="71"/>
+      <c r="BL89" s="72"/>
       <c r="BM89" s="51"/>
     </row>
     <row r="90" spans="31:65" x14ac:dyDescent="0.2">
@@ -7623,7 +7621,7 @@
       <c r="BA90" s="6"/>
       <c r="BB90" s="6"/>
       <c r="BC90" s="17"/>
-      <c r="BD90" s="72"/>
+      <c r="BD90" s="64"/>
       <c r="BE90" s="5"/>
       <c r="BF90" s="25" t="s">
         <v>58</v>
@@ -7634,9 +7632,9 @@
       </c>
       <c r="BH90" s="17"/>
       <c r="BI90" s="47"/>
-      <c r="BJ90" s="66"/>
-      <c r="BK90" s="67"/>
-      <c r="BL90" s="68"/>
+      <c r="BJ90" s="70"/>
+      <c r="BK90" s="71"/>
+      <c r="BL90" s="72"/>
       <c r="BM90" s="51"/>
     </row>
     <row r="91" spans="31:65" x14ac:dyDescent="0.2">
@@ -7726,7 +7724,7 @@
       <c r="BA91" s="6"/>
       <c r="BB91" s="6"/>
       <c r="BC91" s="17"/>
-      <c r="BD91" s="72"/>
+      <c r="BD91" s="64"/>
       <c r="BE91" s="15" t="s">
         <v>46</v>
       </c>
@@ -7739,50 +7737,50 @@
       </c>
       <c r="BH91" s="17"/>
       <c r="BI91" s="47"/>
-      <c r="BJ91" s="66"/>
-      <c r="BK91" s="67"/>
-      <c r="BL91" s="68"/>
+      <c r="BJ91" s="70"/>
+      <c r="BK91" s="71"/>
+      <c r="BL91" s="72"/>
       <c r="BM91" s="51"/>
     </row>
     <row r="92" spans="31:65" x14ac:dyDescent="0.2">
       <c r="AE92" s="49"/>
       <c r="AF92" s="5"/>
-      <c r="AG92" s="73" t="s">
+      <c r="AG92" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH92" s="73"/>
-      <c r="AI92" s="73"/>
-      <c r="AJ92" s="73"/>
-      <c r="AK92" s="73"/>
-      <c r="AL92" s="73"/>
-      <c r="AM92" s="73"/>
-      <c r="AN92" s="73"/>
-      <c r="AO92" s="73"/>
-      <c r="AP92" s="73"/>
-      <c r="AQ92" s="73"/>
-      <c r="AR92" s="73"/>
-      <c r="AS92" s="73"/>
-      <c r="AT92" s="73"/>
-      <c r="AU92" s="73"/>
-      <c r="AV92" s="73"/>
-      <c r="AW92" s="73"/>
-      <c r="AX92" s="73"/>
-      <c r="AY92" s="73"/>
-      <c r="AZ92" s="73"/>
+      <c r="AH92" s="63"/>
+      <c r="AI92" s="63"/>
+      <c r="AJ92" s="63"/>
+      <c r="AK92" s="63"/>
+      <c r="AL92" s="63"/>
+      <c r="AM92" s="63"/>
+      <c r="AN92" s="63"/>
+      <c r="AO92" s="63"/>
+      <c r="AP92" s="63"/>
+      <c r="AQ92" s="63"/>
+      <c r="AR92" s="63"/>
+      <c r="AS92" s="63"/>
+      <c r="AT92" s="63"/>
+      <c r="AU92" s="63"/>
+      <c r="AV92" s="63"/>
+      <c r="AW92" s="63"/>
+      <c r="AX92" s="63"/>
+      <c r="AY92" s="63"/>
+      <c r="AZ92" s="63"/>
       <c r="BA92" s="6"/>
       <c r="BB92" s="6"/>
       <c r="BC92" s="17"/>
-      <c r="BD92" s="72"/>
+      <c r="BD92" s="64"/>
       <c r="BE92" s="15"/>
-      <c r="BF92" s="73" t="s">
+      <c r="BF92" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG92" s="73"/>
+      <c r="BG92" s="63"/>
       <c r="BH92" s="17"/>
       <c r="BI92" s="47"/>
-      <c r="BJ92" s="66"/>
-      <c r="BK92" s="67"/>
-      <c r="BL92" s="68"/>
+      <c r="BJ92" s="70"/>
+      <c r="BK92" s="71"/>
+      <c r="BL92" s="72"/>
       <c r="BM92" s="51"/>
     </row>
     <row r="93" spans="31:65" x14ac:dyDescent="0.2">
@@ -7878,7 +7876,7 @@
       <c r="BC93" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD93" s="72"/>
+      <c r="BD93" s="64"/>
       <c r="BE93" s="18"/>
       <c r="BF93" s="24"/>
       <c r="BG93" s="19">
@@ -7889,9 +7887,9 @@
         <v>50</v>
       </c>
       <c r="BI93" s="47"/>
-      <c r="BJ93" s="66"/>
-      <c r="BK93" s="67"/>
-      <c r="BL93" s="68"/>
+      <c r="BJ93" s="70"/>
+      <c r="BK93" s="71"/>
+      <c r="BL93" s="72"/>
       <c r="BM93" s="51"/>
     </row>
     <row r="94" spans="31:65" x14ac:dyDescent="0.2">
@@ -7926,9 +7924,9 @@
       <c r="BG94" s="47"/>
       <c r="BH94" s="47"/>
       <c r="BI94" s="47"/>
-      <c r="BJ94" s="69"/>
-      <c r="BK94" s="70"/>
-      <c r="BL94" s="71"/>
+      <c r="BJ94" s="73"/>
+      <c r="BK94" s="74"/>
+      <c r="BL94" s="75"/>
       <c r="BM94" s="51"/>
     </row>
     <row r="95" spans="31:65" x14ac:dyDescent="0.2">
@@ -8301,7 +8299,7 @@
       <c r="BG105" s="47"/>
       <c r="BH105" s="47"/>
       <c r="BI105" s="47"/>
-      <c r="BJ105" s="63" t="str">
+      <c r="BJ105" s="67" t="str">
         <f>"При сложении "&amp;
 IF(AND(AH107=0,AH108=0),"двух положительных слагаемых",IF(AND(AH107=1,AH108=1),"двух отрицательных слагаемых","положительного и отрицательного слагаемого"))&amp;
 " получено "&amp;
@@ -8309,8 +8307,8 @@
 IF(BD106="=","Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.","Результат выполнения операции не совпадает с суммой десяитчных эквивалентов, так как произошло переполнение.")</f>
         <v>При сложении положительного и отрицательного слагаемого получено положительное число. Результат выполнения операции верный и корректный, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BK105" s="64"/>
-      <c r="BL105" s="65"/>
+      <c r="BK105" s="68"/>
+      <c r="BL105" s="69"/>
       <c r="BM105" s="51"/>
     </row>
     <row r="106" spans="31:65" x14ac:dyDescent="0.2">
@@ -8396,7 +8394,7 @@
       <c r="BA106" s="10"/>
       <c r="BB106" s="10"/>
       <c r="BC106" s="16"/>
-      <c r="BD106" s="72" t="str">
+      <c r="BD106" s="64" t="str">
         <f>IF(BB110=BG110,"=","!=")</f>
         <v>=</v>
       </c>
@@ -8405,9 +8403,9 @@
       <c r="BG106" s="10"/>
       <c r="BH106" s="16"/>
       <c r="BI106" s="47"/>
-      <c r="BJ106" s="66"/>
-      <c r="BK106" s="67"/>
-      <c r="BL106" s="68"/>
+      <c r="BJ106" s="70"/>
+      <c r="BK106" s="71"/>
+      <c r="BL106" s="72"/>
       <c r="BM106" s="51"/>
     </row>
     <row r="107" spans="31:65" x14ac:dyDescent="0.2">
@@ -8495,7 +8493,7 @@
       <c r="BA107" s="6"/>
       <c r="BB107" s="6"/>
       <c r="BC107" s="17"/>
-      <c r="BD107" s="72"/>
+      <c r="BD107" s="64"/>
       <c r="BE107" s="5"/>
       <c r="BF107" s="25" t="s">
         <v>72</v>
@@ -8506,9 +8504,9 @@
       </c>
       <c r="BH107" s="17"/>
       <c r="BI107" s="47"/>
-      <c r="BJ107" s="66"/>
-      <c r="BK107" s="67"/>
-      <c r="BL107" s="68"/>
+      <c r="BJ107" s="70"/>
+      <c r="BK107" s="71"/>
+      <c r="BL107" s="72"/>
       <c r="BM107" s="51"/>
     </row>
     <row r="108" spans="31:65" x14ac:dyDescent="0.2">
@@ -8598,7 +8596,7 @@
       <c r="BA108" s="6"/>
       <c r="BB108" s="6"/>
       <c r="BC108" s="17"/>
-      <c r="BD108" s="72"/>
+      <c r="BD108" s="64"/>
       <c r="BE108" s="15" t="s">
         <v>46</v>
       </c>
@@ -8611,50 +8609,50 @@
       </c>
       <c r="BH108" s="17"/>
       <c r="BI108" s="47"/>
-      <c r="BJ108" s="66"/>
-      <c r="BK108" s="67"/>
-      <c r="BL108" s="68"/>
+      <c r="BJ108" s="70"/>
+      <c r="BK108" s="71"/>
+      <c r="BL108" s="72"/>
       <c r="BM108" s="51"/>
     </row>
     <row r="109" spans="31:65" x14ac:dyDescent="0.2">
       <c r="AE109" s="49"/>
       <c r="AF109" s="5"/>
-      <c r="AG109" s="73" t="s">
+      <c r="AG109" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AH109" s="73"/>
-      <c r="AI109" s="73"/>
-      <c r="AJ109" s="73"/>
-      <c r="AK109" s="73"/>
-      <c r="AL109" s="73"/>
-      <c r="AM109" s="73"/>
-      <c r="AN109" s="73"/>
-      <c r="AO109" s="73"/>
-      <c r="AP109" s="73"/>
-      <c r="AQ109" s="73"/>
-      <c r="AR109" s="73"/>
-      <c r="AS109" s="73"/>
-      <c r="AT109" s="73"/>
-      <c r="AU109" s="73"/>
-      <c r="AV109" s="73"/>
-      <c r="AW109" s="73"/>
-      <c r="AX109" s="73"/>
-      <c r="AY109" s="73"/>
-      <c r="AZ109" s="73"/>
+      <c r="AH109" s="63"/>
+      <c r="AI109" s="63"/>
+      <c r="AJ109" s="63"/>
+      <c r="AK109" s="63"/>
+      <c r="AL109" s="63"/>
+      <c r="AM109" s="63"/>
+      <c r="AN109" s="63"/>
+      <c r="AO109" s="63"/>
+      <c r="AP109" s="63"/>
+      <c r="AQ109" s="63"/>
+      <c r="AR109" s="63"/>
+      <c r="AS109" s="63"/>
+      <c r="AT109" s="63"/>
+      <c r="AU109" s="63"/>
+      <c r="AV109" s="63"/>
+      <c r="AW109" s="63"/>
+      <c r="AX109" s="63"/>
+      <c r="AY109" s="63"/>
+      <c r="AZ109" s="63"/>
       <c r="BA109" s="6"/>
       <c r="BB109" s="6"/>
       <c r="BC109" s="17"/>
-      <c r="BD109" s="72"/>
+      <c r="BD109" s="64"/>
       <c r="BE109" s="15"/>
-      <c r="BF109" s="73" t="s">
+      <c r="BF109" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="BG109" s="73"/>
+      <c r="BG109" s="63"/>
       <c r="BH109" s="17"/>
       <c r="BI109" s="47"/>
-      <c r="BJ109" s="66"/>
-      <c r="BK109" s="67"/>
-      <c r="BL109" s="68"/>
+      <c r="BJ109" s="70"/>
+      <c r="BK109" s="71"/>
+      <c r="BL109" s="72"/>
       <c r="BM109" s="51"/>
     </row>
     <row r="110" spans="31:65" x14ac:dyDescent="0.2">
@@ -8750,7 +8748,7 @@
       <c r="BC110" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BD110" s="72"/>
+      <c r="BD110" s="64"/>
       <c r="BE110" s="18"/>
       <c r="BF110" s="24"/>
       <c r="BG110" s="19">
@@ -8761,9 +8759,9 @@
         <v>50</v>
       </c>
       <c r="BI110" s="47"/>
-      <c r="BJ110" s="66"/>
-      <c r="BK110" s="67"/>
-      <c r="BL110" s="68"/>
+      <c r="BJ110" s="70"/>
+      <c r="BK110" s="71"/>
+      <c r="BL110" s="72"/>
       <c r="BM110" s="51"/>
     </row>
     <row r="111" spans="31:65" x14ac:dyDescent="0.2">
@@ -8798,9 +8796,9 @@
       <c r="BG111" s="47"/>
       <c r="BH111" s="47"/>
       <c r="BI111" s="47"/>
-      <c r="BJ111" s="69"/>
-      <c r="BK111" s="70"/>
-      <c r="BL111" s="71"/>
+      <c r="BJ111" s="73"/>
+      <c r="BK111" s="74"/>
+      <c r="BL111" s="75"/>
       <c r="BM111" s="51"/>
     </row>
     <row r="112" spans="31:65" x14ac:dyDescent="0.2">
@@ -9106,23 +9104,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="BD4:BD8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="BF7:BG7"/>
-    <mergeCell ref="BJ20:BL26"/>
-    <mergeCell ref="BD21:BD25"/>
-    <mergeCell ref="AG24:AZ24"/>
-    <mergeCell ref="BF24:BG24"/>
-    <mergeCell ref="BJ3:BL9"/>
-    <mergeCell ref="BJ37:BL43"/>
-    <mergeCell ref="BD38:BD42"/>
-    <mergeCell ref="AG41:AZ41"/>
-    <mergeCell ref="BF41:BG41"/>
-    <mergeCell ref="BJ54:BL60"/>
-    <mergeCell ref="BD55:BD59"/>
-    <mergeCell ref="AG58:AZ58"/>
-    <mergeCell ref="BF58:BG58"/>
     <mergeCell ref="BJ105:BL111"/>
     <mergeCell ref="BD106:BD110"/>
     <mergeCell ref="AG109:AZ109"/>
@@ -9135,6 +9116,23 @@
     <mergeCell ref="BD89:BD93"/>
     <mergeCell ref="AG92:AZ92"/>
     <mergeCell ref="BF92:BG92"/>
+    <mergeCell ref="BJ37:BL43"/>
+    <mergeCell ref="BD38:BD42"/>
+    <mergeCell ref="AG41:AZ41"/>
+    <mergeCell ref="BF41:BG41"/>
+    <mergeCell ref="BJ54:BL60"/>
+    <mergeCell ref="BD55:BD59"/>
+    <mergeCell ref="AG58:AZ58"/>
+    <mergeCell ref="BF58:BG58"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="BD4:BD8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="BJ20:BL26"/>
+    <mergeCell ref="BD21:BD25"/>
+    <mergeCell ref="AG24:AZ24"/>
+    <mergeCell ref="BF24:BG24"/>
+    <mergeCell ref="BJ3:BL9"/>
   </mergeCells>
   <conditionalFormatting sqref="AB6:AB17">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
